--- a/logboek/Logboek-Noël.xlsx
+++ b/logboek/Logboek-Noël.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -96,11 +96,32 @@
   <si>
     <t>Week 5</t>
   </si>
+  <si>
+    <t>9:00-12:15</t>
+  </si>
+  <si>
+    <t>logboeken klaargezet</t>
+  </si>
+  <si>
+    <t>pva aangemaakt voor verdere.</t>
+  </si>
+  <si>
+    <t>moscow aangemaakt voor verdere.</t>
+  </si>
+  <si>
+    <t>interviews gemaakt.</t>
+  </si>
+  <si>
+    <t>bereikbaarheidslijst gemaakt</t>
+  </si>
+  <si>
+    <t>samenwerkingscontract gemaakt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,46 +523,64 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
+      <c r="I7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -557,6 +596,12 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -571,6 +616,12 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -590,6 +641,12 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -597,50 +654,67 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
@@ -650,9 +724,11 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -665,9 +741,11 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">

--- a/logboek/Logboek-Noël.xlsx
+++ b/logboek/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>samenwerkingscontract gemaakt</t>
+  </si>
+  <si>
+    <t>beginnen uml use case</t>
+  </si>
+  <si>
+    <t>moscow gewerkt</t>
+  </si>
+  <si>
+    <t>moscow / pve tabel vorm gegeven</t>
+  </si>
+  <si>
+    <t>uml's gewerkt</t>
   </si>
 </sst>
 </file>
@@ -499,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,12 +688,18 @@
       <c r="E22" t="s">
         <v>20</v>
       </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>15</v>
       </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -693,10 +711,16 @@
       <c r="E25" t="s">
         <v>20</v>
       </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/logboek/Logboek-Noël.xlsx
+++ b/logboek/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -129,12 +129,21 @@
   <si>
     <t>uml's gewerkt</t>
   </si>
+  <si>
+    <t>keuzedeel</t>
+  </si>
+  <si>
+    <t>uml usecase diagrammen en template af , tekeningen/prototypes</t>
+  </si>
+  <si>
+    <t>ziek</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +165,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -188,13 +205,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -511,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,8 +629,8 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="I12" t="s">
-        <v>22</v>
+      <c r="I12" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -638,6 +656,9 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -736,6 +757,9 @@
       <c r="E28" t="s">
         <v>20</v>
       </c>
+      <c r="I28" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -753,6 +777,9 @@
       <c r="E31" t="s">
         <v>20</v>
       </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -769,6 +796,9 @@
       </c>
       <c r="E34" t="s">
         <v>20</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/logboek/Logboek-Noël.xlsx
+++ b/logboek/Logboek-Noël.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
-  <si>
-    <t xml:space="preserve">Project Fifa </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -67,9 +64,6 @@
     <t>Iedereen heeft tijd besteed aan met het gebruiken van Github.</t>
   </si>
   <si>
-    <t>Groep 10: EA-Sports-3-0</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
@@ -137,13 +131,25 @@
   </si>
   <si>
     <t>ziek</t>
+  </si>
+  <si>
+    <t>sequentiediagrammen gemaakt</t>
+  </si>
+  <si>
+    <t>vergadering</t>
+  </si>
+  <si>
+    <t>Groep 4: obesicode</t>
+  </si>
+  <si>
+    <t>Project BarrocIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +184,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -205,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -213,6 +226,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -529,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,150 +554,153 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -701,47 +718,47 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -749,61 +766,64 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -822,76 +842,88 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4"/>
+      <c r="I37" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4"/>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E46" s="4"/>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -910,76 +942,76 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -998,76 +1030,76 @@
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">

--- a/logboek/Logboek-Noël.xlsx
+++ b/logboek/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Project BarrocIT</t>
+  </si>
+  <si>
+    <t>moodboard website gemaakt</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,6 +951,9 @@
         <v>14</v>
       </c>
       <c r="E52" s="4"/>
+      <c r="I52" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">

--- a/logboek/Logboek-Noël.xlsx
+++ b/logboek/Logboek-Noël.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>moodboard bijgewerkt</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>development page</t>
+  </si>
+  <si>
+    <t>stagegesprek</t>
+  </si>
+  <si>
+    <t>vakantie</t>
+  </si>
+  <si>
+    <t>klaarmaken inlevering</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -171,6 +189,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Verdana"/>
@@ -178,13 +203,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -239,16 +257,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -563,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,6 +908,9 @@
         <v>8</v>
       </c>
       <c r="E40" s="7"/>
+      <c r="I40" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
@@ -1046,6 +1068,9 @@
         <v>11</v>
       </c>
       <c r="E64" s="7"/>
+      <c r="I64" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
@@ -1074,6 +1099,9 @@
         <v>13</v>
       </c>
       <c r="E67" s="7"/>
+      <c r="I67" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
@@ -1089,6 +1117,9 @@
         <v>8</v>
       </c>
       <c r="E70" s="7"/>
+      <c r="I70" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
@@ -1104,6 +1135,9 @@
         <v>9</v>
       </c>
       <c r="E73" s="7"/>
+      <c r="I73" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
@@ -1119,6 +1153,9 @@
         <v>10</v>
       </c>
       <c r="E76" s="7"/>
+      <c r="I76" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
@@ -1134,6 +1171,9 @@
         <v>11</v>
       </c>
       <c r="E79" s="7"/>
+      <c r="I79" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
@@ -1153,6 +1193,214 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="I88" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="I97" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="I100" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="I103" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/logboek/Logboek-Noël.xlsx
+++ b/logboek/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -164,9 +164,6 @@
     <t>development page</t>
   </si>
   <si>
-    <t>stagegesprek</t>
-  </si>
-  <si>
     <t>vakantie</t>
   </si>
   <si>
@@ -174,6 +171,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>praktijkexamen rijles (afwezig)</t>
+  </si>
+  <si>
+    <t>stagegesprek (afwezig)</t>
+  </si>
+  <si>
+    <t>maken gebruikershandleiding</t>
   </si>
 </sst>
 </file>
@@ -582,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +918,7 @@
       </c>
       <c r="E40" s="7"/>
       <c r="I40" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1196,7 +1205,7 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
@@ -1205,18 +1214,18 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
@@ -1225,18 +1234,18 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -1248,18 +1257,18 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>
@@ -1268,18 +1277,18 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
@@ -1288,7 +1297,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -1314,7 +1323,7 @@
       </c>
       <c r="E97" s="7"/>
       <c r="I97" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -1332,7 +1341,7 @@
       </c>
       <c r="E100" s="7"/>
       <c r="I100" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -1350,7 +1359,7 @@
       </c>
       <c r="E103" s="7"/>
       <c r="I103" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -1367,6 +1376,9 @@
         <v>10</v>
       </c>
       <c r="E106" s="7"/>
+      <c r="I106" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
@@ -1382,6 +1394,9 @@
         <v>11</v>
       </c>
       <c r="E109" s="7"/>
+      <c r="I109" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
@@ -1401,6 +1416,109 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
     </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="I112" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="I115" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="I118" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="I121" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="I124" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
